--- a/final+project.xlsx
+++ b/final+project.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernardjohn.paner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernardjohn.paner\Desktop\Graphics_Apps_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>Your Name:</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>I don't have to shuffle the cube myself</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>A 3D graphics application designed to emulate a Rubiks Cube rendered in a browser using HTML, Javascript, and the Three.js library. Ideally, the player will be able to manipulate distinct rows and columns of a 3D object as though it were the genuine article</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,13 +335,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -337,19 +355,19 @@
   </cellStyles>
   <dxfs count="49">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -503,103 +521,103 @@
     <sortCondition ref="B8:B20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="UserStory#" dataDxfId="46"/>
-    <tableColumn id="6" name="StoryName" dataDxfId="45"/>
-    <tableColumn id="2" name="As a …" dataDxfId="44"/>
-    <tableColumn id="3" name="I want…" dataDxfId="43"/>
-    <tableColumn id="4" name="So That…" dataDxfId="42"/>
-    <tableColumn id="5" name="Status" dataDxfId="41"/>
+    <tableColumn id="1" name="UserStory#" dataDxfId="5"/>
+    <tableColumn id="6" name="StoryName" dataDxfId="4"/>
+    <tableColumn id="2" name="As a …" dataDxfId="3"/>
+    <tableColumn id="3" name="I want…" dataDxfId="2"/>
+    <tableColumn id="4" name="So That…" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:H13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:H13" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="B4:H13"/>
   <sortState ref="B5:H13">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="12" name="Priority" dataDxfId="38"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="37"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="36"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="35"/>
-    <tableColumn id="3" name="Description" dataDxfId="34"/>
-    <tableColumn id="4" name="In" dataDxfId="33"/>
-    <tableColumn id="8" name="InSprint" dataDxfId="32"/>
+    <tableColumn id="12" name="Priority" dataDxfId="44"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="43"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="42"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="41"/>
+    <tableColumn id="3" name="Description" dataDxfId="40"/>
+    <tableColumn id="4" name="In" dataDxfId="39"/>
+    <tableColumn id="8" name="InSprint" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:G12" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:G12" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="29"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="28"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="27"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="26"/>
-    <tableColumn id="3" name="Description" dataDxfId="25"/>
-    <tableColumn id="4" name="In" dataDxfId="24"/>
+    <tableColumn id="12" name="Points" dataDxfId="35"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="34"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="33"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="32"/>
+    <tableColumn id="3" name="Description" dataDxfId="31"/>
+    <tableColumn id="4" name="In" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="21"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="20"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="19"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="18"/>
-    <tableColumn id="3" name="Description" dataDxfId="17"/>
-    <tableColumn id="4" name="In" dataDxfId="16"/>
+    <tableColumn id="12" name="Points" dataDxfId="27"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="26"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="25"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="24"/>
+    <tableColumn id="3" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" name="In" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="13"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="12"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="11"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="10"/>
-    <tableColumn id="3" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" name="In" dataDxfId="8"/>
+    <tableColumn id="12" name="Points" dataDxfId="19"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="18"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="17"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="16"/>
+    <tableColumn id="3" name="Description" dataDxfId="15"/>
+    <tableColumn id="4" name="In" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="5"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="4"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="3"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="2"/>
-    <tableColumn id="3" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" name="In" dataDxfId="0"/>
+    <tableColumn id="12" name="Points" dataDxfId="11"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="10"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="9"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="8"/>
+    <tableColumn id="3" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" name="In" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -871,7 +889,7 @@
   <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,68 +905,70 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -962,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +994,8 @@
     <col min="4" max="4" width="58.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="69.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
@@ -1006,203 +1027,233 @@
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>69</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>59</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>60</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>45</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="10" t="s">
         <v>47</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1277,7 @@
   <dimension ref="B3:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B5" sqref="B5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,14 +1478,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="71.42578125" customWidth="1"/>
+    <col min="6" max="6" width="79.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1464,68 +1515,92 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>

--- a/final+project.xlsx
+++ b/final+project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>Your Name:</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>A 3D graphics application designed to emulate a Rubiks Cube rendered in a browser using HTML, Javascript, and the Three.js library. Ideally, the player will be able to manipulate distinct rows and columns of a 3D object as though it were the genuine article</t>
+  </si>
+  <si>
+    <t>BJ Paner</t>
+  </si>
+  <si>
+    <t>https://github.com/bpaner21/Graphics_Apps_Final_Project/tree/Week_3</t>
   </si>
 </sst>
 </file>
@@ -320,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -341,19 +347,154 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="51">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -368,129 +509,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -515,109 +533,111 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G20" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G20" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="B8:G20"/>
   <sortState ref="B9:G20">
     <sortCondition ref="B8:B20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="UserStory#" dataDxfId="5"/>
-    <tableColumn id="6" name="StoryName" dataDxfId="4"/>
-    <tableColumn id="2" name="As a …" dataDxfId="3"/>
-    <tableColumn id="3" name="I want…" dataDxfId="2"/>
-    <tableColumn id="4" name="So That…" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" name="UserStory#" dataDxfId="48"/>
+    <tableColumn id="6" name="StoryName" dataDxfId="47"/>
+    <tableColumn id="2" name="As a …" dataDxfId="46"/>
+    <tableColumn id="3" name="I want…" dataDxfId="45"/>
+    <tableColumn id="4" name="So That…" dataDxfId="44"/>
+    <tableColumn id="5" name="Status" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:H13" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="B4:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:I13" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="B4:I13"/>
   <sortState ref="B5:H13">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="12" name="Priority" dataDxfId="44"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="43"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="42"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="41"/>
-    <tableColumn id="3" name="Description" dataDxfId="40"/>
-    <tableColumn id="4" name="In" dataDxfId="39"/>
-    <tableColumn id="8" name="InSprint" dataDxfId="38"/>
+  <tableColumns count="8">
+    <tableColumn id="12" name="Priority" dataDxfId="40"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="39"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="38"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="37"/>
+    <tableColumn id="3" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" name="In" dataDxfId="35"/>
+    <tableColumn id="8" name="InSprint" dataDxfId="34"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:G12" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B3:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:H12" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B3:H12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="35"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="34"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="33"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="32"/>
-    <tableColumn id="3" name="Description" dataDxfId="31"/>
-    <tableColumn id="4" name="In" dataDxfId="30"/>
+  <tableColumns count="7">
+    <tableColumn id="12" name="Points" dataDxfId="31"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="30"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="29"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="28"/>
+    <tableColumn id="3" name="Description" dataDxfId="27"/>
+    <tableColumn id="4" name="In" dataDxfId="26"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="27"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="26"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="25"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="24"/>
-    <tableColumn id="3" name="Description" dataDxfId="23"/>
-    <tableColumn id="4" name="In" dataDxfId="22"/>
+    <tableColumn id="12" name="Points" dataDxfId="23"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="22"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="21"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="20"/>
+    <tableColumn id="3" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" name="In" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="19"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="18"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="17"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="16"/>
-    <tableColumn id="3" name="Description" dataDxfId="15"/>
-    <tableColumn id="4" name="In" dataDxfId="14"/>
+    <tableColumn id="12" name="Points" dataDxfId="15"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="14"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="13"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="12"/>
+    <tableColumn id="3" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" name="In" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="11"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="10"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="9"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" name="In" dataDxfId="6"/>
+    <tableColumn id="12" name="Points" dataDxfId="7"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="6"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="5"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="4"/>
+    <tableColumn id="3" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" name="In" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -889,7 +909,7 @@
   <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +918,9 @@
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
@@ -905,70 +928,70 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1027,19 +1050,19 @@
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1047,19 +1070,19 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1067,19 +1090,19 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1087,19 +1110,19 @@
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1107,19 +1130,19 @@
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1127,19 +1150,19 @@
       <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1147,19 +1170,19 @@
       <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1167,19 +1190,19 @@
       <c r="B16" s="2">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1187,19 +1210,19 @@
       <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1207,19 +1230,19 @@
       <c r="B18" s="3">
         <v>9</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1227,19 +1250,19 @@
       <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1247,13 +1270,13 @@
       <c r="B20" s="3">
         <v>11</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H13"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,9 +1310,10 @@
     <col min="6" max="6" width="91.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +1326,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1324,8 +1348,11 @@
       <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>10</v>
       </c>
@@ -1344,9 +1371,14 @@
       <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>8</v>
       </c>
@@ -1365,9 +1397,14 @@
       <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -1386,9 +1423,14 @@
       <c r="G7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -1407,9 +1449,14 @@
       <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1428,9 +1475,14 @@
       <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1438,8 +1490,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1447,8 +1500,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1456,8 +1510,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1465,6 +1520,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,23 +1534,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="79.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1513,130 +1573,167 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="H4" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="H5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="H6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1645,154 +1742,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1952,154 +2049,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2259,154 +2356,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2571,154 +2668,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/final+project.xlsx
+++ b/final+project.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
   <si>
     <t>Your Name:</t>
   </si>
@@ -267,6 +267,24 @@
   </si>
   <si>
     <t>https://github.com/bpaner21/Graphics_Apps_Final_Project/tree/Week_3</t>
+  </si>
+  <si>
+    <t>Get the camera to give full 360 vertical rotation</t>
+  </si>
+  <si>
+    <t>Change the thickness of the lines bordering each cube</t>
+  </si>
+  <si>
+    <t>Move custom code from index.html to custom .js</t>
+  </si>
+  <si>
+    <t>Get the columns and rows of the cube to move like it would in real life</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Move files into visual studio project</t>
   </si>
 </sst>
 </file>
@@ -326,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -564,80 +585,80 @@
     <tableColumn id="3" name="Description" dataDxfId="36"/>
     <tableColumn id="4" name="In" dataDxfId="35"/>
     <tableColumn id="8" name="InSprint" dataDxfId="34"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="5" name="Status" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:H12" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:H12" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B3:H12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="12" name="Points" dataDxfId="31"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="30"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="29"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="28"/>
-    <tableColumn id="3" name="Description" dataDxfId="27"/>
-    <tableColumn id="4" name="In" dataDxfId="26"/>
-    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="12" name="Points" dataDxfId="30"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="29"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="28"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="27"/>
+    <tableColumn id="3" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" name="In" dataDxfId="25"/>
+    <tableColumn id="5" name="Status" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="23"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="22"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="21"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="20"/>
-    <tableColumn id="3" name="Description" dataDxfId="19"/>
-    <tableColumn id="4" name="In" dataDxfId="18"/>
+    <tableColumn id="12" name="Points" dataDxfId="21"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="20"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="19"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="18"/>
+    <tableColumn id="3" name="Description" dataDxfId="17"/>
+    <tableColumn id="4" name="In" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="15"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="14"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="13"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="12"/>
-    <tableColumn id="3" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" name="In" dataDxfId="10"/>
+    <tableColumn id="12" name="Points" dataDxfId="13"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="12"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="11"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" name="In" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="7"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="6"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="5"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="4"/>
-    <tableColumn id="3" name="Description" dataDxfId="3"/>
-    <tableColumn id="4" name="In" dataDxfId="2"/>
+    <tableColumn id="12" name="Points" dataDxfId="5"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="4"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="3"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="2"/>
+    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" name="In" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,70 +949,70 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1300,7 +1321,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1387,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>52</v>
@@ -1418,7 +1439,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>52</v>
@@ -1444,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>52</v>
@@ -1470,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>52</v>
@@ -1483,14 +1504,28 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -1535,7 +1570,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,154 +1777,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1907,7 +1942,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1990,7 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2049,154 +2084,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2356,154 +2391,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2668,154 +2703,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/final+project.xlsx
+++ b/final+project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
   <si>
     <t>Your Name:</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>Move files into visual studio project</t>
+  </si>
+  <si>
+    <t>https://github.com/bpaner21/Graphics_Apps_Final_Project/tree/Week_4</t>
+  </si>
+  <si>
+    <t>For now I'm going to focus on the actual controls for the cube. After I move it into a Visual Studio solution, I'll attempt to have it so that the cube can be manipulated through the mouse with drag and rotation using the left mouse button.</t>
+  </si>
+  <si>
+    <t>Graphics_App_Final_Project</t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -374,72 +383,81 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="52">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -554,111 +572,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G20" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G20" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B8:G20"/>
   <sortState ref="B9:G20">
     <sortCondition ref="B8:B20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="UserStory#" dataDxfId="48"/>
-    <tableColumn id="6" name="StoryName" dataDxfId="47"/>
-    <tableColumn id="2" name="As a …" dataDxfId="46"/>
-    <tableColumn id="3" name="I want…" dataDxfId="45"/>
-    <tableColumn id="4" name="So That…" dataDxfId="44"/>
-    <tableColumn id="5" name="Status" dataDxfId="43"/>
+    <tableColumn id="1" name="UserStory#" dataDxfId="49"/>
+    <tableColumn id="6" name="StoryName" dataDxfId="48"/>
+    <tableColumn id="2" name="As a …" dataDxfId="47"/>
+    <tableColumn id="3" name="I want…" dataDxfId="46"/>
+    <tableColumn id="4" name="So That…" dataDxfId="45"/>
+    <tableColumn id="5" name="Status" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:I13" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:I13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B4:I13"/>
   <sortState ref="B5:H13">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="12" name="Priority" dataDxfId="40"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="39"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="38"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="37"/>
-    <tableColumn id="3" name="Description" dataDxfId="36"/>
-    <tableColumn id="4" name="In" dataDxfId="35"/>
-    <tableColumn id="8" name="InSprint" dataDxfId="34"/>
-    <tableColumn id="5" name="Status" dataDxfId="33"/>
+    <tableColumn id="12" name="Priority" dataDxfId="9"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="8"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="7"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="6"/>
+    <tableColumn id="3" name="Description" dataDxfId="5"/>
+    <tableColumn id="4" name="In" dataDxfId="4"/>
+    <tableColumn id="8" name="InSprint" dataDxfId="3"/>
+    <tableColumn id="5" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:H12" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="B3:H12" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B3:H12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="12" name="Points" dataDxfId="30"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="29"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="28"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="27"/>
-    <tableColumn id="3" name="Description" dataDxfId="26"/>
-    <tableColumn id="4" name="In" dataDxfId="25"/>
-    <tableColumn id="5" name="Status" dataDxfId="24"/>
+    <tableColumn id="12" name="Points" dataDxfId="41"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="40"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="39"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="38"/>
+    <tableColumn id="3" name="Description" dataDxfId="37"/>
+    <tableColumn id="4" name="In" dataDxfId="36"/>
+    <tableColumn id="5" name="Status" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:G12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B3:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B3:H12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:H12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="21"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="20"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="19"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="18"/>
-    <tableColumn id="3" name="Description" dataDxfId="17"/>
-    <tableColumn id="4" name="In" dataDxfId="16"/>
+  <tableColumns count="7">
+    <tableColumn id="12" name="Points" dataDxfId="18"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="17"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="16"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="15"/>
+    <tableColumn id="3" name="Description" dataDxfId="14"/>
+    <tableColumn id="4" name="In" dataDxfId="13"/>
+    <tableColumn id="5" name="Status" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="B3:G12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="13"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="12"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="11"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="10"/>
-    <tableColumn id="3" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" name="In" dataDxfId="8"/>
+    <tableColumn id="12" name="Points" dataDxfId="32"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="31"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="30"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="29"/>
+    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="4" name="In" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="B3:G12"/>
   <sortState ref="B4:H12">
     <sortCondition descending="1" ref="B19:B28"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="12" name="Points" dataDxfId="5"/>
-    <tableColumn id="10" name="BacklogId" dataDxfId="4"/>
-    <tableColumn id="1" name="StoryName" dataDxfId="3"/>
-    <tableColumn id="2" name="BacklogType" dataDxfId="2"/>
-    <tableColumn id="3" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" name="In" dataDxfId="0"/>
+    <tableColumn id="12" name="Points" dataDxfId="24"/>
+    <tableColumn id="10" name="BacklogId" dataDxfId="23"/>
+    <tableColumn id="1" name="StoryName" dataDxfId="22"/>
+    <tableColumn id="2" name="BacklogType" dataDxfId="21"/>
+    <tableColumn id="3" name="Description" dataDxfId="20"/>
+    <tableColumn id="4" name="In" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,70 +968,70 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1026,19 +1045,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="61.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1320,242 +1339,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="13.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="91.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>74</v>
+      <c r="I10" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1569,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,160 +1796,169 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1942,296 +1976,317 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="71.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="27.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="71.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D15" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2391,154 +2446,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2703,154 +2758,154 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/final+project.xlsx
+++ b/final+project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project Description" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="97">
   <si>
     <t>Your Name:</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Story Name</t>
+  </si>
+  <si>
+    <t>https://github.com/bpaner21/Graphics_Apps_Final_Project</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -426,9 +429,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -438,11 +438,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -560,15 +569,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:G12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B3:G12"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Points" dataDxfId="7"/>
-    <tableColumn id="2" name="Backlog Id" dataDxfId="6"/>
-    <tableColumn id="3" name="Story Name" dataDxfId="5"/>
-    <tableColumn id="4" name="Backlog Type" dataDxfId="4"/>
-    <tableColumn id="5" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" name="In" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="B3:H12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="B3:H12"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Points" dataDxfId="8"/>
+    <tableColumn id="2" name="Backlog Id" dataDxfId="7"/>
+    <tableColumn id="3" name="Story Name" dataDxfId="6"/>
+    <tableColumn id="4" name="Backlog Type" dataDxfId="5"/>
+    <tableColumn id="5" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" name="In" dataDxfId="3"/>
+    <tableColumn id="7" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -941,7 +951,7 @@
   <dimension ref="A7:AMK28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1128,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,7 +1208,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,7 +1245,7 @@
   <dimension ref="A3:AMK13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1933,7 @@
   <dimension ref="A2:AMK33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B19" sqref="B19:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:I33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,13 +2423,15 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="19" t="s">
         <v>89</v>
       </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -2580,8 +2592,9 @@
     </row>
   </sheetData>
   <autoFilter ref="H3:H6"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B19:I33"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2595,29 +2608,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="71.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="13" style="9" customWidth="1"/>
-    <col min="8" max="1025" width="8.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="9" customWidth="1"/>
+    <col min="9" max="1025" width="8.28515625" style="9" customWidth="1"/>
     <col min="1026" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
@@ -2636,98 +2650,117 @@
       <c r="G3" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" s="17" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="C15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="2:8" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2737,158 +2770,159 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B19:I33"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
